--- a/Lab Forms/BirdMonitoring.xlsx
+++ b/Lab Forms/BirdMonitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yardenc/Documents/GitHub/lab-handbook/Lab Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5BC160-C2E9-894A-82B4-A61C23D70CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F565189-3B27-564D-81F6-E0DEAA35FA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>Box:</t>
   </si>
   <si>
-    <t>Social</t>
+    <t>Enrichment</t>
   </si>
 </sst>
 </file>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Lab Forms/BirdMonitoring.xlsx
+++ b/Lab Forms/BirdMonitoring.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yardenc/Documents/GitHub/lab-handbook/Lab Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F565189-3B27-564D-81F6-E0DEAA35FA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B797E6-0094-BA46-BE2E-556568440529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>Enrichment</t>
+  </si>
+  <si>
+    <t>Food &amp; Water</t>
+  </si>
+  <si>
+    <t>Social Enrichment</t>
+  </si>
+  <si>
+    <t>Start Rec.</t>
   </si>
 </sst>
 </file>
@@ -422,16 +431,18 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="4"/>
-    <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="4"/>
-    <col min="7" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="16" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="4"/>
+    <col min="4" max="5" width="20.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
+    <col min="8" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -473,18 +484,21 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -527,86 +541,248 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Lab Forms/BirdMonitoring.xlsx
+++ b/Lab Forms/BirdMonitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yardenc/Documents/GitHub/lab-handbook/Lab Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B797E6-0094-BA46-BE2E-556568440529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C1C2B8-08D1-B74F-9599-273B59EEA9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -133,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +148,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,71 +431,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="16" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="4"/>
-    <col min="4" max="5" width="20.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="4"/>
     <col min="8" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -502,43 +475,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
